--- a/biorefineries/oilcane/results/oilcane_spearman_4.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Element</t>
   </si>
@@ -89,24 +89,6 @@
   </si>
   <si>
     <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
-  </si>
-  <si>
-    <t>MFPP derivative [USD/MT]</t>
-  </si>
-  <si>
-    <t>Biodiesel production derivative [L/MT]</t>
-  </si>
-  <si>
-    <t>Ethanol production derivative [L/MT]</t>
-  </si>
-  <si>
-    <t>Electricity production derivative [kWhr/MT]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption derivative [cf/MT]</t>
-  </si>
-  <si>
-    <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
     <t>GWP derivative [kg*CO2*eq / USD]</t>
@@ -626,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE41"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,30 +645,22 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -759,2031 +733,2012 @@
       <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.06811359447313596</v>
+        <v>0.03898287537578746</v>
       </c>
       <c r="D4">
-        <v>0.00151221894312219</v>
+        <v>0.006927833543188168</v>
       </c>
       <c r="F4">
-        <v>-0.02067908805879088</v>
+        <v>-0.09237299051491535</v>
       </c>
       <c r="G4">
-        <v>-0.02408169306523467</v>
-      </c>
-      <c r="H4">
-        <v>0.02440372778133951</v>
+        <v>-0.01817352662965928</v>
       </c>
       <c r="I4">
-        <v>-0.02815060954150609</v>
+        <v>-0.03947382493109451</v>
       </c>
       <c r="J4">
-        <v>0.003449890538165515</v>
+        <v>0.006838659718330276</v>
       </c>
       <c r="K4">
-        <v>0.04447250472072505</v>
+        <v>0.08131852709087659</v>
       </c>
       <c r="L4">
-        <v>0.05247806346878063</v>
+        <v>0.05472441018680106</v>
       </c>
       <c r="M4">
-        <v>0.04447250472072505</v>
+        <v>0.08131852709087659</v>
+      </c>
+      <c r="O4">
+        <v>0.08131852709087659</v>
       </c>
       <c r="P4">
-        <v>0.04218089412180894</v>
+        <v>0.06227707984895368</v>
       </c>
       <c r="Q4">
-        <v>0.05324538588445386</v>
+        <v>0.05903041761540685</v>
       </c>
       <c r="R4">
-        <v>0.05324538588445386</v>
+        <v>0.05903041761540685</v>
       </c>
       <c r="S4">
-        <v>0.05324538588445386</v>
+        <v>0.05903041761540685</v>
       </c>
       <c r="T4">
-        <v>0.05324538588445386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>0.05903041761540685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.02131328937313289</v>
+        <v>0.02658618223407007</v>
       </c>
       <c r="D5">
-        <v>0.0009778538137785381</v>
+        <v>0.006988934304976717</v>
       </c>
       <c r="F5">
-        <v>-3.355791633557916E-05</v>
+        <v>-0.04291829231113677</v>
       </c>
       <c r="G5">
-        <v>-0.02990061938098071</v>
-      </c>
-      <c r="H5">
-        <v>0.02241416817259688</v>
+        <v>-0.02890334142810987</v>
       </c>
       <c r="I5">
-        <v>-0.008497623816976238</v>
+        <v>-0.0107902363698003</v>
       </c>
       <c r="J5">
-        <v>-0.007479511032235587</v>
+        <v>-0.0008853121747020917</v>
       </c>
       <c r="K5">
-        <v>0.02875463198354632</v>
+        <v>0.03160061370443298</v>
       </c>
       <c r="L5">
-        <v>0.0324046206960462</v>
+        <v>0.02289310510720257</v>
       </c>
       <c r="M5">
-        <v>0.02875463198354632</v>
+        <v>0.03160061370443298</v>
+      </c>
+      <c r="O5">
+        <v>0.03160061370443298</v>
       </c>
       <c r="P5">
-        <v>0.03269318186693182</v>
+        <v>0.04319701019789177</v>
       </c>
       <c r="Q5">
-        <v>0.03535497756554978</v>
+        <v>0.02810069181261209</v>
       </c>
       <c r="R5">
-        <v>0.03535497756554978</v>
+        <v>0.02810069181261209</v>
       </c>
       <c r="S5">
-        <v>0.03535497756554978</v>
+        <v>0.02810069181261209</v>
       </c>
       <c r="T5">
-        <v>0.03535497756554978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>0.02810069181261209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>0.3592981909129819</v>
+        <v>0.3281488250852479</v>
       </c>
       <c r="D6">
-        <v>-0.02621256331012563</v>
+        <v>-0.004376206841838649</v>
       </c>
       <c r="F6">
-        <v>-0.007273569408735694</v>
+        <v>0.00558834540219936</v>
       </c>
       <c r="G6">
-        <v>-0.01010316227805786</v>
-      </c>
-      <c r="H6">
-        <v>-0.00393190621992416</v>
+        <v>0.05583722924512983</v>
       </c>
       <c r="I6">
-        <v>-0.5868412881604128</v>
+        <v>-0.5791727520048658</v>
       </c>
       <c r="J6">
-        <v>-0.02177612560370301</v>
+        <v>-0.003764528558392497</v>
       </c>
       <c r="K6">
-        <v>-0.008274334438743345</v>
+        <v>-0.01245406593317155</v>
       </c>
       <c r="L6">
-        <v>-0.00635881905958819</v>
+        <v>-0.01463382185165965</v>
       </c>
       <c r="M6">
-        <v>-0.008274334438743345</v>
+        <v>-0.01245406593317155</v>
+      </c>
+      <c r="O6">
+        <v>-0.01245406593317155</v>
       </c>
       <c r="P6">
-        <v>-0.008008677584086776</v>
+        <v>-0.02093448733503905</v>
       </c>
       <c r="Q6">
-        <v>-0.007799058125990581</v>
+        <v>-0.01549360273921136</v>
       </c>
       <c r="R6">
-        <v>-0.007799058125990581</v>
+        <v>-0.01549360273921136</v>
       </c>
       <c r="S6">
-        <v>-0.007799058125990581</v>
+        <v>-0.01549360273921136</v>
       </c>
       <c r="T6">
-        <v>-0.007799058125990581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>-0.01549360273921136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>-0.0005293649572936496</v>
+        <v>-0.0198755495027018</v>
       </c>
       <c r="D7">
-        <v>0.02194901197549012</v>
+        <v>0.003422080331197346</v>
       </c>
       <c r="F7">
-        <v>0.005414877042148771</v>
+        <v>-0.002524260374893303</v>
       </c>
       <c r="G7">
-        <v>-0.004036822639252269</v>
-      </c>
-      <c r="H7">
-        <v>0.009942868750396228</v>
+        <v>0.01089981002785805</v>
       </c>
       <c r="I7">
-        <v>0.02863964704639647</v>
+        <v>0.02107979966059707</v>
       </c>
       <c r="J7">
-        <v>-0.006491543081291924</v>
+        <v>-0.00171288806337284</v>
       </c>
       <c r="K7">
-        <v>0.009997839867978401</v>
+        <v>-0.002564771418385353</v>
       </c>
       <c r="L7">
-        <v>0.009379476429794765</v>
+        <v>0.004117596676428083</v>
       </c>
       <c r="M7">
-        <v>0.009997839867978401</v>
+        <v>-0.002564771418385353</v>
+      </c>
+      <c r="O7">
+        <v>-0.002564771418385353</v>
       </c>
       <c r="P7">
-        <v>0.01017352794573528</v>
+        <v>-0.00140613314635822</v>
       </c>
       <c r="Q7">
-        <v>0.009395285697952857</v>
+        <v>0.003564743946642783</v>
       </c>
       <c r="R7">
-        <v>0.009395285697952857</v>
+        <v>0.003564743946642783</v>
       </c>
       <c r="S7">
-        <v>0.009395285697952857</v>
+        <v>0.003564743946642783</v>
       </c>
       <c r="T7">
-        <v>0.009395285697952857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+        <v>0.003564743946642783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>0.3132125230921253</v>
+        <v>0.3009569631512614</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-0.002724645687246457</v>
+        <v>0.02002185153687656</v>
       </c>
       <c r="G8">
-        <v>0.01212633732042318</v>
-      </c>
-      <c r="H8">
-        <v>-0.003146238970814859</v>
+        <v>-0.04438278099612435</v>
       </c>
       <c r="I8">
-        <v>0.7383547494875474</v>
+        <v>0.7399748826699962</v>
       </c>
       <c r="J8">
-        <v>0.04243091053257718</v>
+        <v>0.02673427415435599</v>
       </c>
       <c r="K8">
-        <v>-0.006967612629676126</v>
+        <v>-0.03541972237899776</v>
       </c>
       <c r="L8">
-        <v>-0.00751390806313908</v>
+        <v>-0.02358426927284118</v>
       </c>
       <c r="M8">
-        <v>-0.006967612629676126</v>
+        <v>-0.03541972237899776</v>
+      </c>
+      <c r="O8">
+        <v>-0.03541972237899776</v>
       </c>
       <c r="P8">
-        <v>-0.003271412456714124</v>
+        <v>-0.01973945564115329</v>
       </c>
       <c r="Q8">
-        <v>-0.007324875385248754</v>
+        <v>-0.02447456703638998</v>
       </c>
       <c r="R8">
-        <v>-0.007324875385248754</v>
+        <v>-0.02447456703638998</v>
       </c>
       <c r="S8">
-        <v>-0.007324875385248754</v>
+        <v>-0.02447456703638998</v>
       </c>
       <c r="T8">
-        <v>-0.007324875385248754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+        <v>-0.02447456703638998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>0.4789362409933624</v>
+        <v>0.4047523310275932</v>
       </c>
       <c r="D9">
-        <v>-0.009849915098499151</v>
+        <v>0.005658769096977216</v>
       </c>
       <c r="F9">
-        <v>-0.009741422413414224</v>
+        <v>0.001064386320579432</v>
       </c>
       <c r="G9">
-        <v>0.000183502358580778</v>
-      </c>
-      <c r="H9">
-        <v>-0.007748081504961583</v>
+        <v>0.01132027441933205</v>
       </c>
       <c r="I9">
-        <v>1.2473400124734E-05</v>
+        <v>0.00187978901283072</v>
       </c>
       <c r="J9">
-        <v>-0.009985763245651921</v>
+        <v>0.01276991644217741</v>
       </c>
       <c r="K9">
-        <v>-0.006495509104955091</v>
+        <v>0.01703718055091653</v>
       </c>
       <c r="L9">
-        <v>-0.004924583257245833</v>
+        <v>0.01360293815514507</v>
       </c>
       <c r="M9">
-        <v>-0.006495509104955091</v>
+        <v>0.01703718055091653</v>
+      </c>
+      <c r="O9">
+        <v>0.01703718055091653</v>
       </c>
       <c r="P9">
-        <v>-0.004703870867038709</v>
+        <v>0.01399983210006978</v>
       </c>
       <c r="Q9">
-        <v>-0.004322412391224124</v>
+        <v>0.01538110702790805</v>
       </c>
       <c r="R9">
-        <v>-0.004322412391224124</v>
+        <v>0.01538110702790805</v>
       </c>
       <c r="S9">
-        <v>-0.004322412391224124</v>
+        <v>0.01538110702790805</v>
       </c>
       <c r="T9">
-        <v>-0.004322412391224124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+        <v>0.01538110702790805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>0.2717942694779427</v>
+        <v>0.2335555545378907</v>
       </c>
       <c r="D10">
-        <v>-0.006061106124611061</v>
+        <v>0.026406840156517</v>
       </c>
       <c r="F10">
-        <v>-0.003542784719427847</v>
+        <v>-0.01145360866127084</v>
       </c>
       <c r="G10">
-        <v>0.004205647731927842</v>
-      </c>
-      <c r="H10">
-        <v>-0.00462776131253163</v>
+        <v>-0.01463438965903391</v>
       </c>
       <c r="I10">
-        <v>-0.01106201877862019</v>
+        <v>0.03740015451488718</v>
       </c>
       <c r="J10">
-        <v>-0.00215813628384134</v>
+        <v>-0.001320144861201894</v>
       </c>
       <c r="K10">
-        <v>-0.002507732509077325</v>
+        <v>0.003038617801043563</v>
       </c>
       <c r="L10">
-        <v>-0.000786363199863632</v>
+        <v>-0.008358976354937311</v>
       </c>
       <c r="M10">
-        <v>-0.002507732509077325</v>
+        <v>0.003038617801043563</v>
+      </c>
+      <c r="O10">
+        <v>0.003038617801043563</v>
       </c>
       <c r="P10">
-        <v>-0.002637068102370681</v>
+        <v>-0.009954839659749663</v>
       </c>
       <c r="Q10">
-        <v>-0.001362156121621561</v>
+        <v>-0.009180355042214931</v>
       </c>
       <c r="R10">
-        <v>-0.001362156121621561</v>
+        <v>-0.009180355042214931</v>
       </c>
       <c r="S10">
-        <v>-0.001362156121621561</v>
+        <v>-0.009180355042214931</v>
       </c>
       <c r="T10">
-        <v>-0.001362156121621561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>-0.009180355042214931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>-0.01019414780994148</v>
+        <v>0.002949433305466626</v>
       </c>
       <c r="D11">
-        <v>-1.081171210811712E-05</v>
+        <v>0.004045143176839909</v>
       </c>
       <c r="F11">
-        <v>0.02135267688952677</v>
+        <v>0.01314029187949689</v>
       </c>
       <c r="G11">
-        <v>-0.00758570394000349</v>
-      </c>
-      <c r="H11">
-        <v>0.0227635633293138</v>
+        <v>0.02150233756715715</v>
       </c>
       <c r="I11">
-        <v>0.01105409051054091</v>
+        <v>-0.007749571478734441</v>
       </c>
       <c r="J11">
-        <v>-0.000455296143787538</v>
+        <v>0.003057883007159476</v>
       </c>
       <c r="K11">
-        <v>0.02370307350903074</v>
+        <v>-0.02153819689964405</v>
       </c>
       <c r="L11">
-        <v>0.02223335423433354</v>
+        <v>-0.01870552150725708</v>
       </c>
       <c r="M11">
-        <v>0.02370307350903074</v>
+        <v>-0.02153819689964405</v>
+      </c>
+      <c r="O11">
+        <v>-0.02153819689964405</v>
       </c>
       <c r="P11">
-        <v>0.02195120473551205</v>
+        <v>-0.02639988908610817</v>
       </c>
       <c r="Q11">
-        <v>0.02333822906938229</v>
+        <v>-0.02080584297364199</v>
       </c>
       <c r="R11">
-        <v>0.02333822906938229</v>
+        <v>-0.02080584297364199</v>
       </c>
       <c r="S11">
-        <v>0.02333822906938229</v>
+        <v>-0.02080584297364199</v>
       </c>
       <c r="T11">
-        <v>0.02333822906938229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+        <v>-0.02080584297364199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>0.01337456289774563</v>
+        <v>0.007210326330812001</v>
       </c>
       <c r="D12">
-        <v>0.01840892352408923</v>
+        <v>-0.001568431105123641</v>
       </c>
       <c r="F12">
-        <v>0.0090436599424366</v>
+        <v>-0.01450893932066977</v>
       </c>
       <c r="G12">
-        <v>-0.01216626566320994</v>
-      </c>
-      <c r="H12">
-        <v>0.0117038377987553</v>
+        <v>0.004674814182699718</v>
       </c>
       <c r="I12">
-        <v>0.006451650568516506</v>
+        <v>-0.001888619104173325</v>
       </c>
       <c r="J12">
-        <v>0.008903899540854091</v>
+        <v>-0.02083243146845688</v>
       </c>
       <c r="K12">
-        <v>0.007031801134318011</v>
+        <v>0.01369255250789767</v>
       </c>
       <c r="L12">
-        <v>0.006927725553277256</v>
+        <v>0.01640246155280822</v>
       </c>
       <c r="M12">
-        <v>0.007031801134318011</v>
+        <v>0.01369255250789767</v>
+      </c>
+      <c r="O12">
+        <v>0.01369255250789767</v>
       </c>
       <c r="P12">
-        <v>0.007147270595472706</v>
+        <v>0.007804518136778175</v>
       </c>
       <c r="Q12">
-        <v>0.006360495087604951</v>
+        <v>0.01510885906703122</v>
       </c>
       <c r="R12">
-        <v>0.006360495087604951</v>
+        <v>0.01510885906703122</v>
       </c>
       <c r="S12">
-        <v>0.006360495087604951</v>
+        <v>0.01510885906703122</v>
       </c>
       <c r="T12">
-        <v>0.006360495087604951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+        <v>0.01510885906703122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>-0.003101793751017938</v>
+        <v>-0.009890943334581839</v>
       </c>
       <c r="D13">
-        <v>-0.02004360854043609</v>
+        <v>-0.005649679064460522</v>
       </c>
       <c r="F13">
-        <v>-0.0029616800216168</v>
+        <v>0.00978264452010333</v>
       </c>
       <c r="G13">
-        <v>-0.0009196047813595945</v>
-      </c>
-      <c r="H13">
-        <v>0.0006477172028867245</v>
+        <v>0.02307753410424866</v>
       </c>
       <c r="I13">
-        <v>-0.01210705058507051</v>
+        <v>-0.007129848183402612</v>
       </c>
       <c r="J13">
-        <v>-0.005957139734131185</v>
+        <v>-0.01443222303286419</v>
       </c>
       <c r="K13">
-        <v>0.01234392252343922</v>
+        <v>-0.009843714500007539</v>
       </c>
       <c r="L13">
-        <v>0.01382211809422118</v>
+        <v>-0.01371594584022012</v>
       </c>
       <c r="M13">
-        <v>0.01234392252343922</v>
+        <v>-0.009843714500007539</v>
+      </c>
+      <c r="O13">
+        <v>-0.009843714500007539</v>
       </c>
       <c r="P13">
-        <v>0.002451018828510188</v>
+        <v>-0.02201480706930554</v>
       </c>
       <c r="Q13">
-        <v>0.01058752668987527</v>
+        <v>-0.0149502397802285</v>
       </c>
       <c r="R13">
-        <v>0.01058752668987527</v>
+        <v>-0.0149502397802285</v>
       </c>
       <c r="S13">
-        <v>0.01058752668987527</v>
+        <v>-0.0149502397802285</v>
       </c>
       <c r="T13">
-        <v>0.01058752668987527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>-0.0149502397802285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>-0.4292364289523643</v>
+        <v>-0.3689553420855492</v>
       </c>
       <c r="D14">
-        <v>-0.003031562910315629</v>
+        <v>-0.009515585958716011</v>
       </c>
       <c r="F14">
-        <v>0.003536438123364381</v>
+        <v>0.01081211708032614</v>
       </c>
       <c r="G14">
-        <v>-0.002740296354798145</v>
-      </c>
-      <c r="H14">
-        <v>0.005606619763844425</v>
+        <v>0.02822101237362885</v>
       </c>
       <c r="I14">
-        <v>-0.01304326081043261</v>
+        <v>-0.003112592920209924</v>
       </c>
       <c r="J14">
-        <v>0.005037050131437091</v>
+        <v>-0.001238435466851199</v>
       </c>
       <c r="K14">
-        <v>0.003797890417978904</v>
+        <v>-0.01524530057444582</v>
       </c>
       <c r="L14">
-        <v>0.003617836428178364</v>
+        <v>-0.01259774928141015</v>
       </c>
       <c r="M14">
-        <v>0.003797890417978904</v>
+        <v>-0.01524530057444582</v>
+      </c>
+      <c r="O14">
+        <v>-0.01524530057444582</v>
       </c>
       <c r="P14">
-        <v>0.00516366695163667</v>
+        <v>-0.02064876614338533</v>
       </c>
       <c r="Q14">
-        <v>0.004362550795625509</v>
+        <v>-0.01380236261818392</v>
       </c>
       <c r="R14">
-        <v>0.004362550795625509</v>
+        <v>-0.01380236261818392</v>
       </c>
       <c r="S14">
-        <v>0.004362550795625509</v>
+        <v>-0.01380236261818392</v>
       </c>
       <c r="T14">
-        <v>0.004362550795625509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+        <v>-0.01380236261818392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>0.01357626459976265</v>
+        <v>-0.02263021469709575</v>
       </c>
       <c r="D15">
-        <v>-0.002824025776240258</v>
+        <v>-0.01557380271309977</v>
       </c>
       <c r="F15">
-        <v>-0.006397431135974312</v>
+        <v>0.02354428824604077</v>
       </c>
       <c r="G15">
-        <v>-0.001745327462568695</v>
-      </c>
-      <c r="H15">
-        <v>-0.0007742371644560185</v>
+        <v>-0.01305429103582568</v>
       </c>
       <c r="I15">
-        <v>-0.007212769356127692</v>
+        <v>-0.02221270816056664</v>
       </c>
       <c r="J15">
-        <v>-0.004820717944682885</v>
+        <v>-0.007252222084975314</v>
       </c>
       <c r="K15">
-        <v>-0.003771188125711881</v>
+        <v>0.02009473711940742</v>
       </c>
       <c r="L15">
-        <v>-0.003484183606841836</v>
+        <v>-0.003826411132022559</v>
       </c>
       <c r="M15">
-        <v>-0.003771188125711881</v>
+        <v>0.02009473711940742</v>
+      </c>
+      <c r="O15">
+        <v>0.02009473711940742</v>
       </c>
       <c r="P15">
-        <v>-0.0001831347378313474</v>
+        <v>0.005626119983530071</v>
       </c>
       <c r="Q15">
-        <v>-0.002103294897032949</v>
+        <v>-0.001411436533533287</v>
       </c>
       <c r="R15">
-        <v>-0.002103294897032949</v>
+        <v>-0.001411436533533287</v>
       </c>
       <c r="S15">
-        <v>-0.002103294897032949</v>
+        <v>-0.001411436533533287</v>
       </c>
       <c r="T15">
-        <v>-0.002103294897032949</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>-0.001411436533533287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>-0.004754125355541253</v>
+        <v>0.01917642182679995</v>
       </c>
       <c r="D16">
-        <v>0.0007758225677582258</v>
+        <v>0.007547779557292404</v>
       </c>
       <c r="F16">
-        <v>0.02185969712659697</v>
+        <v>0.01171157060755388</v>
       </c>
       <c r="G16">
-        <v>-0.009704131454993194</v>
-      </c>
-      <c r="H16">
-        <v>0.02053560475673252</v>
+        <v>-0.02571854931403319</v>
       </c>
       <c r="I16">
-        <v>0.002836770544367706</v>
+        <v>0.0006491652679276606</v>
       </c>
       <c r="J16">
-        <v>0.006804634537132271</v>
+        <v>0.0008961320660997033</v>
       </c>
       <c r="K16">
-        <v>0.0174875394308754</v>
+        <v>-0.02243777672731109</v>
       </c>
       <c r="L16">
-        <v>0.01626122123461221</v>
+        <v>-0.0195198577729645</v>
       </c>
       <c r="M16">
-        <v>0.0174875394308754</v>
+        <v>-0.02243777672731109</v>
+      </c>
+      <c r="O16">
+        <v>-0.02243777672731109</v>
       </c>
       <c r="P16">
-        <v>0.02050865810508658</v>
+        <v>-0.009634666057150505</v>
       </c>
       <c r="Q16">
-        <v>0.01817316643373166</v>
+        <v>-0.01851277358757546</v>
       </c>
       <c r="R16">
-        <v>0.01817316643373166</v>
+        <v>-0.01851277358757546</v>
       </c>
       <c r="S16">
-        <v>0.01817316643373166</v>
+        <v>-0.01851277358757546</v>
       </c>
       <c r="T16">
-        <v>0.01817316643373166</v>
+        <v>-0.01851277358757546</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>0.02250393657303936</v>
+        <v>0.02468345991233922</v>
       </c>
       <c r="D17">
-        <v>0.01176501519365015</v>
+        <v>0.01867757013557137</v>
       </c>
       <c r="F17">
-        <v>-0.01110442121104421</v>
+        <v>-0.01105458920355388</v>
       </c>
       <c r="G17">
-        <v>-0.001918817529906132</v>
-      </c>
-      <c r="H17">
-        <v>-0.01189709748848114</v>
+        <v>0.004582411796290319</v>
       </c>
       <c r="I17">
-        <v>-0.008760283803602838</v>
+        <v>0.00880147569785608</v>
       </c>
       <c r="J17">
-        <v>0.002772432873614608</v>
+        <v>-0.00440047051025159</v>
       </c>
       <c r="K17">
-        <v>-0.01378458594584586</v>
+        <v>-0.01521778909956574</v>
       </c>
       <c r="L17">
-        <v>-0.01427070075470701</v>
+        <v>-0.004624168038039158</v>
       </c>
       <c r="M17">
-        <v>-0.01378458594584586</v>
+        <v>-0.01521778909956574</v>
+      </c>
+      <c r="O17">
+        <v>-0.01521778909956574</v>
       </c>
       <c r="P17">
-        <v>-0.0145639097656391</v>
+        <v>-0.004317377214833665</v>
       </c>
       <c r="Q17">
-        <v>-0.01403258798032588</v>
+        <v>-0.005246287205821258</v>
       </c>
       <c r="R17">
-        <v>-0.01403258798032588</v>
+        <v>-0.005246287205821258</v>
       </c>
       <c r="S17">
-        <v>-0.01403258798032588</v>
+        <v>-0.005246287205821258</v>
       </c>
       <c r="T17">
-        <v>-0.01403258798032588</v>
+        <v>-0.005246287205821258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>-0.09220078250200782</v>
+        <v>-0.08376448346653001</v>
       </c>
       <c r="D18">
-        <v>-0.001414514918145149</v>
+        <v>0.01226250534180415</v>
       </c>
       <c r="F18">
-        <v>-0.0001024622410246224</v>
+        <v>0.01062100647275109</v>
       </c>
       <c r="G18">
-        <v>0.01176925402347025</v>
-      </c>
-      <c r="H18">
-        <v>-0.002252754364721912</v>
+        <v>-0.01816512521157371</v>
       </c>
       <c r="I18">
-        <v>-0.006702368563023685</v>
+        <v>0.01605642169601199</v>
       </c>
       <c r="J18">
-        <v>0.005175926186034152</v>
+        <v>-0.0150436033356499</v>
       </c>
       <c r="K18">
-        <v>-0.003621317616213176</v>
+        <v>-0.005432413800110484</v>
       </c>
       <c r="L18">
-        <v>-0.002409631296096313</v>
+        <v>-0.01132046730335502</v>
       </c>
       <c r="M18">
-        <v>-0.003621317616213176</v>
+        <v>-0.005432413800110484</v>
+      </c>
+      <c r="O18">
+        <v>-0.005432413800110484</v>
       </c>
       <c r="P18">
-        <v>-0.005025331202253312</v>
+        <v>-0.005843880599434305</v>
       </c>
       <c r="Q18">
-        <v>-0.003724190485241905</v>
+        <v>-0.009971615455219331</v>
       </c>
       <c r="R18">
-        <v>-0.003724190485241905</v>
+        <v>-0.009971615455219331</v>
       </c>
       <c r="S18">
-        <v>-0.003724190485241905</v>
+        <v>-0.009971615455219331</v>
       </c>
       <c r="T18">
-        <v>-0.003724190485241905</v>
+        <v>-0.009971615455219331</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>-0.06961373994013739</v>
+        <v>-0.08938227690298857</v>
       </c>
       <c r="D19">
-        <v>0.01707790277077903</v>
+        <v>-0.02315687478999646</v>
       </c>
       <c r="F19">
-        <v>-0.002234809498348095</v>
+        <v>-0.005420865999877615</v>
       </c>
       <c r="G19">
-        <v>0.002011495466246748</v>
-      </c>
-      <c r="H19">
-        <v>-0.007842303556728047</v>
+        <v>-0.01692149839365954</v>
       </c>
       <c r="I19">
-        <v>-0.002125583361255834</v>
+        <v>-0.01690233686008306</v>
       </c>
       <c r="J19">
-        <v>-0.01675688674149588</v>
+        <v>-0.01655913577105675</v>
       </c>
       <c r="K19">
-        <v>-0.01019378060993781</v>
+        <v>0.01300793441778342</v>
       </c>
       <c r="L19">
-        <v>-0.0114650703906507</v>
+        <v>0.01302492312917925</v>
       </c>
       <c r="M19">
-        <v>-0.01019378060993781</v>
+        <v>0.01300793441778342</v>
+      </c>
+      <c r="O19">
+        <v>0.01300793441778342</v>
       </c>
       <c r="P19">
-        <v>-0.01075955815159558</v>
+        <v>0.01305272234364282</v>
       </c>
       <c r="Q19">
-        <v>-0.0116716898487169</v>
+        <v>0.01322666224785045</v>
       </c>
       <c r="R19">
-        <v>-0.0116716898487169</v>
+        <v>0.01322666224785045</v>
       </c>
       <c r="S19">
-        <v>-0.0116716898487169</v>
+        <v>0.01322666224785045</v>
       </c>
       <c r="T19">
-        <v>-0.0116716898487169</v>
+        <v>0.01322666224785045</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>-0.09625447281854473</v>
+        <v>-0.08676739873326983</v>
       </c>
       <c r="D20">
-        <v>-0.007641676312416763</v>
+        <v>0.008044896997157104</v>
       </c>
       <c r="F20">
-        <v>-0.007290552264905523</v>
+        <v>-0.01314405157885053</v>
       </c>
       <c r="G20">
-        <v>0.01091492757536613</v>
-      </c>
-      <c r="H20">
-        <v>-0.009288908210210873</v>
+        <v>-0.008657446598021193</v>
       </c>
       <c r="I20">
-        <v>0.1297532703375327</v>
+        <v>0.1434665016552327</v>
       </c>
       <c r="J20">
-        <v>-0.001300627121803647</v>
+        <v>0.005187544873557346</v>
       </c>
       <c r="K20">
-        <v>-0.009167713699677137</v>
+        <v>-0.0199555624174469</v>
       </c>
       <c r="L20">
-        <v>-0.008626123190261232</v>
+        <v>-0.01758489071703328</v>
       </c>
       <c r="M20">
-        <v>-0.009167713699677137</v>
+        <v>-0.0199555624174469</v>
+      </c>
+      <c r="O20">
+        <v>-0.0199555624174469</v>
       </c>
       <c r="P20">
-        <v>-0.008559807373598073</v>
+        <v>-0.0125891029342387</v>
       </c>
       <c r="Q20">
-        <v>-0.008100175665001758</v>
+        <v>-0.01640762140168876</v>
       </c>
       <c r="R20">
-        <v>-0.008100175665001758</v>
+        <v>-0.01640762140168876</v>
       </c>
       <c r="S20">
-        <v>-0.008100175665001758</v>
+        <v>-0.01640762140168876</v>
       </c>
       <c r="T20">
-        <v>-0.008100175665001758</v>
+        <v>-0.01640762140168876</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>0.1041001322490013</v>
+        <v>0.05208961765332831</v>
       </c>
       <c r="D21">
-        <v>0.004832216064322161</v>
+        <v>0.005616012728127706</v>
       </c>
       <c r="F21">
-        <v>0.1154619480026195</v>
+        <v>0.1151272458347858</v>
       </c>
       <c r="G21">
-        <v>-0.0831039163306517</v>
-      </c>
-      <c r="H21">
-        <v>0.09335095759199731</v>
+        <v>-0.0579603462122865</v>
       </c>
       <c r="I21">
-        <v>0.01501213594212136</v>
+        <v>-0.03895254972632727</v>
       </c>
       <c r="J21">
-        <v>-0.02704924962602137</v>
+        <v>0.02150064513085942</v>
       </c>
       <c r="K21">
-        <v>0.03856733116967331</v>
+        <v>-0.03399177330614105</v>
       </c>
       <c r="L21">
-        <v>0.06379409648594096</v>
+        <v>-0.04801158408042475</v>
       </c>
       <c r="M21">
-        <v>0.03856733116967331</v>
+        <v>-0.03399177330614105</v>
+      </c>
+      <c r="O21">
+        <v>-0.03399177330614105</v>
       </c>
       <c r="P21">
-        <v>0.09922537749225378</v>
+        <v>0.009431662750167711</v>
       </c>
       <c r="Q21">
-        <v>0.07683364244433644</v>
+        <v>-0.03647021598275182</v>
       </c>
       <c r="R21">
-        <v>0.07683364244433644</v>
+        <v>-0.03647021598275182</v>
       </c>
       <c r="S21">
-        <v>0.07683364244433644</v>
+        <v>-0.03647021598275182</v>
       </c>
       <c r="T21">
-        <v>0.07683364244433644</v>
+        <v>-0.03647021598275182</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>-0.01588308689083087</v>
+        <v>-0.01848006442577547</v>
       </c>
       <c r="D22">
-        <v>-7.972794079727941E-05</v>
+        <v>0.01002070858277967</v>
       </c>
       <c r="F22">
-        <v>0.005166939639669396</v>
+        <v>-0.03187328413483323</v>
       </c>
       <c r="G22">
-        <v>0.01050988538570321</v>
-      </c>
-      <c r="H22">
-        <v>0.008888156945246752</v>
+        <v>0.0172924469039093</v>
       </c>
       <c r="I22">
-        <v>0.01411945386919454</v>
+        <v>0.009367696242303583</v>
       </c>
       <c r="J22">
-        <v>-0.0008084371215000539</v>
+        <v>-0.002179922915286556</v>
       </c>
       <c r="K22">
-        <v>0.005389831193898312</v>
+        <v>0.002067702187687208</v>
       </c>
       <c r="L22">
-        <v>0.005671958852719589</v>
+        <v>0.001999884724021546</v>
       </c>
       <c r="M22">
-        <v>0.005389831193898312</v>
+        <v>0.002067702187687208</v>
+      </c>
+      <c r="O22">
+        <v>0.002067702187687208</v>
       </c>
       <c r="P22">
-        <v>0.002254243366542434</v>
+        <v>-0.00377485706384412</v>
       </c>
       <c r="Q22">
-        <v>0.003365114709651147</v>
+        <v>0.0004274143253209386</v>
       </c>
       <c r="R22">
-        <v>0.003365114709651147</v>
+        <v>0.0004274143253209386</v>
       </c>
       <c r="S22">
-        <v>0.003365114709651147</v>
+        <v>0.0004274143253209386</v>
       </c>
       <c r="T22">
-        <v>0.003365114709651147</v>
+        <v>0.0004274143253209386</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23">
-        <v>0.1254793535467935</v>
+        <v>0.04414758722577112</v>
       </c>
       <c r="D23">
-        <v>0.01001911825619118</v>
+        <v>-0.03106720286015541</v>
       </c>
       <c r="F23">
-        <v>0.140813596564136</v>
+        <v>0.1224610169458052</v>
       </c>
       <c r="G23">
-        <v>-0.09755896483199078</v>
-      </c>
-      <c r="H23">
-        <v>0.1220045393217334</v>
+        <v>-0.05105297367176154</v>
       </c>
       <c r="I23">
-        <v>0.003356726301567263</v>
+        <v>-0.05334176721730912</v>
       </c>
       <c r="J23">
-        <v>-0.003589825299450893</v>
+        <v>0.02291858668795949</v>
       </c>
       <c r="K23">
-        <v>0.06962140666821406</v>
+        <v>-0.06900573347933492</v>
       </c>
       <c r="L23">
-        <v>0.09852224815322248</v>
+        <v>-0.06544335755937625</v>
       </c>
       <c r="M23">
-        <v>0.06962140666821406</v>
+        <v>-0.06900573347933492</v>
+      </c>
+      <c r="O23">
+        <v>-0.06900573347933492</v>
       </c>
       <c r="P23">
-        <v>0.1280647395806474</v>
+        <v>-0.0003927441680613273</v>
       </c>
       <c r="Q23">
-        <v>0.1109386683173867</v>
+        <v>-0.05244431276036408</v>
       </c>
       <c r="R23">
-        <v>0.1109386683173867</v>
+        <v>-0.05244431276036408</v>
       </c>
       <c r="S23">
-        <v>0.1109386683173867</v>
+        <v>-0.05244431276036408</v>
       </c>
       <c r="T23">
-        <v>0.1109386683173867</v>
+        <v>-0.05244431276036408</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>-0.009459595642595957</v>
+        <v>-0.007852805394606421</v>
       </c>
       <c r="D24">
-        <v>-0.01110188474701885</v>
+        <v>-0.008438356346783582</v>
       </c>
       <c r="F24">
-        <v>-0.0002950307309503073</v>
+        <v>-0.007586903805859689</v>
       </c>
       <c r="G24">
-        <v>0.001681783280165693</v>
-      </c>
-      <c r="H24">
-        <v>-0.0006409679005622079</v>
+        <v>0.005469730962639859</v>
       </c>
       <c r="I24">
-        <v>-0.0118076804140768</v>
+        <v>0.004637649935100408</v>
       </c>
       <c r="J24">
-        <v>-0.003681212612377797</v>
+        <v>-0.01631912887524192</v>
       </c>
       <c r="K24">
-        <v>0.001539968547399686</v>
+        <v>-0.01341503852431769</v>
       </c>
       <c r="L24">
-        <v>0.002818197916181979</v>
+        <v>-0.006168804320355026</v>
       </c>
       <c r="M24">
-        <v>0.001539968547399686</v>
+        <v>-0.01341503852431769</v>
+      </c>
+      <c r="O24">
+        <v>-0.01341503852431769</v>
       </c>
       <c r="P24">
-        <v>0.003938008227380082</v>
+        <v>-0.008051555734378163</v>
       </c>
       <c r="Q24">
-        <v>0.004017263320172632</v>
+        <v>-0.007322313193888748</v>
       </c>
       <c r="R24">
-        <v>0.004017263320172632</v>
+        <v>-0.007322313193888748</v>
       </c>
       <c r="S24">
-        <v>0.004017263320172632</v>
+        <v>-0.007322313193888748</v>
       </c>
       <c r="T24">
-        <v>0.004017263320172632</v>
+        <v>-0.007322313193888748</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>0.06780040777800408</v>
+        <v>-0.001882488915584808</v>
       </c>
       <c r="D25">
-        <v>0.001704990857049909</v>
+        <v>-0.02775967948995046</v>
       </c>
       <c r="F25">
-        <v>0.1327293253392932</v>
+        <v>0.1027295157697768</v>
       </c>
       <c r="G25">
-        <v>-0.07658711920154603</v>
-      </c>
-      <c r="H25">
-        <v>0.1081356999407835</v>
+        <v>-0.05240896653821081</v>
       </c>
       <c r="I25">
-        <v>0.005650700924507009</v>
+        <v>-0.03811076937438811</v>
       </c>
       <c r="J25">
-        <v>-0.0003231447502262153</v>
+        <v>0.0116548434269433</v>
       </c>
       <c r="K25">
-        <v>0.07428252464282525</v>
+        <v>-0.006835486564170587</v>
       </c>
       <c r="L25">
-        <v>0.08291318324513185</v>
+        <v>-0.05062254788366021</v>
       </c>
       <c r="M25">
-        <v>0.07428252464282525</v>
+        <v>-0.006835486564170587</v>
+      </c>
+      <c r="O25">
+        <v>-0.006835486564170587</v>
       </c>
       <c r="P25">
-        <v>0.1047242751032428</v>
+        <v>-0.008709402346111934</v>
       </c>
       <c r="Q25">
-        <v>0.09061999517419997</v>
+        <v>-0.04311336421572953</v>
       </c>
       <c r="R25">
-        <v>0.09061999517419997</v>
+        <v>-0.04311336421572953</v>
       </c>
       <c r="S25">
-        <v>0.09061999517419997</v>
+        <v>-0.04311336421572953</v>
       </c>
       <c r="T25">
-        <v>0.09061999517419997</v>
+        <v>-0.04311336421572953</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26">
-        <v>0.1881224503172245</v>
+        <v>0.07172272756688629</v>
       </c>
       <c r="D26">
-        <v>-0.01081725564017256</v>
+        <v>0.01429938875424399</v>
       </c>
       <c r="F26">
-        <v>0.231105406879054</v>
+        <v>0.2094982748710133</v>
       </c>
       <c r="G26">
-        <v>-0.1568537404778341</v>
-      </c>
-      <c r="H26">
-        <v>0.1784971805795339</v>
+        <v>-0.082898582382663</v>
       </c>
       <c r="I26">
-        <v>0.0009061309650613096</v>
+        <v>-0.02321149208187772</v>
       </c>
       <c r="J26">
-        <v>0.001169308263092904</v>
+        <v>0.007563482879384507</v>
       </c>
       <c r="K26">
-        <v>0.07593487728334877</v>
+        <v>-0.1284760068894332</v>
       </c>
       <c r="L26">
-        <v>0.1223331214553312</v>
+        <v>-0.1180055217000653</v>
       </c>
       <c r="M26">
-        <v>0.07593487728334877</v>
+        <v>-0.1284760068894332</v>
+      </c>
+      <c r="O26">
+        <v>-0.1284760068894332</v>
       </c>
       <c r="P26">
-        <v>0.1818733066387331</v>
+        <v>-0.03320818861645965</v>
       </c>
       <c r="Q26">
-        <v>0.1446997203909972</v>
+        <v>-0.1020339090205196</v>
       </c>
       <c r="R26">
-        <v>0.1446997203909972</v>
+        <v>-0.1020339090205196</v>
       </c>
       <c r="S26">
-        <v>0.1446997203909972</v>
+        <v>-0.1020339090205196</v>
       </c>
       <c r="T26">
-        <v>0.1446997203909972</v>
+        <v>-0.1020339090205196</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>0.2239984464199845</v>
+        <v>0.3235189820990113</v>
       </c>
       <c r="D27">
-        <v>-0.001261675212616752</v>
+        <v>0.030329738478358</v>
       </c>
       <c r="F27">
-        <v>-0.0006699181026991811</v>
+        <v>0.6581275392862559</v>
       </c>
       <c r="G27">
-        <v>0.1919656722930939</v>
-      </c>
-      <c r="H27">
-        <v>-0.2765265105636992</v>
+        <v>0.1068926012518924</v>
       </c>
       <c r="I27">
-        <v>-0.2528911707929117</v>
+        <v>-0.1515749283889935</v>
       </c>
       <c r="J27">
-        <v>-0.01157781614049549</v>
+        <v>0.01024347993456064</v>
       </c>
       <c r="K27">
-        <v>-0.3640452269924523</v>
+        <v>-0.4979493953968658</v>
       </c>
       <c r="L27">
-        <v>-0.4063822625238226</v>
+        <v>-0.454423296452318</v>
       </c>
       <c r="M27">
-        <v>-0.3640452269924523</v>
+        <v>-0.4979493953968658</v>
+      </c>
+      <c r="O27">
+        <v>-0.4979493953968658</v>
       </c>
       <c r="P27">
-        <v>-0.3797782068297821</v>
+        <v>-0.5072680390489829</v>
       </c>
       <c r="Q27">
-        <v>-0.4134009410340094</v>
+        <v>-0.4703841662542281</v>
       </c>
       <c r="R27">
-        <v>-0.4134009410340094</v>
+        <v>-0.4703841662542281</v>
       </c>
       <c r="S27">
-        <v>-0.4134009410340094</v>
+        <v>-0.4703841662542281</v>
       </c>
       <c r="T27">
-        <v>-0.4134009410340094</v>
+        <v>-0.4703841662542281</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>0.0537004604250046</v>
+        <v>0.0433387241211701</v>
       </c>
       <c r="D28">
-        <v>0.01474209685542097</v>
+        <v>0.009162007002806519</v>
       </c>
       <c r="F28">
-        <v>1.78570801785708E-06</v>
+        <v>-0.01610881781447581</v>
       </c>
       <c r="G28">
-        <v>-0.004722867553530674</v>
-      </c>
-      <c r="H28">
-        <v>-0.0007738531176760197</v>
+        <v>-0.0009923308544341853</v>
       </c>
       <c r="I28">
-        <v>-0.07090702730507027</v>
+        <v>-0.06270000906429887</v>
       </c>
       <c r="J28">
-        <v>-0.006036108638711794</v>
+        <v>-0.01326048743073174</v>
       </c>
       <c r="K28">
-        <v>0.006106375129063752</v>
+        <v>0.01282522593864512</v>
       </c>
       <c r="L28">
-        <v>0.00564891802448918</v>
+        <v>0.01532048835778505</v>
       </c>
       <c r="M28">
-        <v>0.006106375129063752</v>
+        <v>0.01282522593864512</v>
+      </c>
+      <c r="O28">
+        <v>0.01282522593864512</v>
       </c>
       <c r="P28">
-        <v>0.00103913702239137</v>
+        <v>0.02119498622951614</v>
       </c>
       <c r="Q28">
-        <v>0.005386007381860073</v>
+        <v>0.01665609300888841</v>
       </c>
       <c r="R28">
-        <v>0.005386007381860073</v>
+        <v>0.01665609300888841</v>
       </c>
       <c r="S28">
-        <v>0.005386007381860073</v>
+        <v>0.01665609300888841</v>
       </c>
       <c r="T28">
-        <v>0.005386007381860073</v>
+        <v>0.01665609300888841</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>0.007765499237654992</v>
+        <v>-0.009118598436862899</v>
       </c>
       <c r="D29">
-        <v>-0.005577593131775931</v>
+        <v>0.008081243062270579</v>
       </c>
       <c r="F29">
-        <v>0.007178935799789358</v>
+        <v>-0.009693006678405142</v>
       </c>
       <c r="G29">
-        <v>-0.01196467659722376</v>
-      </c>
-      <c r="H29">
-        <v>0.009488302881179557</v>
+        <v>0.01030100387535864</v>
       </c>
       <c r="I29">
-        <v>0.004824434016244341</v>
+        <v>0.004331850383284247</v>
       </c>
       <c r="J29">
-        <v>-0.008322261974843403</v>
+        <v>0.01318264822165571</v>
       </c>
       <c r="K29">
-        <v>0.0118424903024249</v>
+        <v>0.01387256032657396</v>
       </c>
       <c r="L29">
-        <v>0.01291541962515419</v>
+        <v>0.01623988144255523</v>
       </c>
       <c r="M29">
-        <v>0.0118424903024249</v>
+        <v>0.01387256032657396</v>
+      </c>
+      <c r="O29">
+        <v>0.01387256032657396</v>
       </c>
       <c r="P29">
-        <v>0.008589278461892785</v>
+        <v>0.01576390822111591</v>
       </c>
       <c r="Q29">
-        <v>0.01244478383244784</v>
+        <v>0.01763383845938603</v>
       </c>
       <c r="R29">
-        <v>0.01244478383244784</v>
+        <v>0.01763383845938603</v>
       </c>
       <c r="S29">
-        <v>0.01244478383244784</v>
+        <v>0.01763383845938603</v>
       </c>
       <c r="T29">
-        <v>0.01244478383244784</v>
+        <v>0.01763383845938603</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>-0.002096025296960253</v>
+        <v>0.02966954055687114</v>
       </c>
       <c r="D30">
-        <v>0.004842115728421158</v>
+        <v>0.004059706844030461</v>
       </c>
       <c r="F30">
-        <v>-0.01481880930418809</v>
+        <v>-0.01433106269759515</v>
       </c>
       <c r="G30">
-        <v>0.001956015573255311</v>
-      </c>
-      <c r="H30">
-        <v>-0.01037888482185304</v>
+        <v>0.02969951448778516</v>
       </c>
       <c r="I30">
-        <v>0.003116872903168729</v>
+        <v>0.003179115555749886</v>
       </c>
       <c r="J30">
-        <v>-0.005037711468354994</v>
+        <v>0.02359950454301023</v>
       </c>
       <c r="K30">
-        <v>-0.006286524398865244</v>
+        <v>-0.0009487294518243427</v>
       </c>
       <c r="L30">
-        <v>-0.003133693939336939</v>
+        <v>0.007728292861866349</v>
       </c>
       <c r="M30">
-        <v>-0.006286524398865244</v>
+        <v>-0.0009487294518243427</v>
+      </c>
+      <c r="O30">
+        <v>-0.0009487294518243427</v>
       </c>
       <c r="P30">
-        <v>-0.008604808322048085</v>
+        <v>0.006296614066475677</v>
       </c>
       <c r="Q30">
-        <v>-0.004153275521532754</v>
+        <v>0.008594804516248476</v>
       </c>
       <c r="R30">
-        <v>-0.004153275521532754</v>
+        <v>0.008594804516248476</v>
       </c>
       <c r="S30">
-        <v>-0.004153275521532754</v>
+        <v>0.008594804516248476</v>
       </c>
       <c r="T30">
-        <v>-0.004153275521532754</v>
+        <v>0.008594804516248476</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C31">
-        <v>-0.0007787692757876927</v>
+        <v>-0.01531238684996647</v>
       </c>
       <c r="D31">
-        <v>-0.01621171205411712</v>
+        <v>-0.009810488391977569</v>
       </c>
       <c r="F31">
-        <v>0.01096203102162031</v>
+        <v>0.009671813919315993</v>
       </c>
       <c r="G31">
-        <v>-0.02865249512652068</v>
-      </c>
-      <c r="H31">
-        <v>0.01176886736241807</v>
+        <v>-0.005397354133622072</v>
       </c>
       <c r="I31">
-        <v>-0.007568159187681592</v>
+        <v>0.001452097934691166</v>
       </c>
       <c r="J31">
-        <v>-0.008934166821733451</v>
+        <v>0.0007903933732381732</v>
       </c>
       <c r="K31">
-        <v>0.009320983029209829</v>
+        <v>-0.001379572689634101</v>
       </c>
       <c r="L31">
-        <v>0.007800726738007267</v>
+        <v>0.0001382002422157149</v>
       </c>
       <c r="M31">
-        <v>0.009320983029209829</v>
+        <v>-0.001379572689634101</v>
+      </c>
+      <c r="O31">
+        <v>-0.001379572689634101</v>
       </c>
       <c r="P31">
-        <v>0.008690676362906763</v>
+        <v>-0.003516104828198125</v>
       </c>
       <c r="Q31">
-        <v>0.008581329625813297</v>
+        <v>-0.001033674761003064</v>
       </c>
       <c r="R31">
-        <v>0.008581329625813297</v>
+        <v>-0.001033674761003064</v>
       </c>
       <c r="S31">
-        <v>0.008581329625813297</v>
+        <v>-0.001033674761003064</v>
       </c>
       <c r="T31">
-        <v>0.008581329625813297</v>
+        <v>-0.001033674761003064</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C32">
-        <v>-0.01095392685753927</v>
+        <v>-0.005195265616885205</v>
       </c>
       <c r="D32">
-        <v>-0.002000245952002459</v>
+        <v>-0.002700006465360688</v>
       </c>
       <c r="F32">
-        <v>0.002135806881358069</v>
+        <v>-0.009285415602460562</v>
       </c>
       <c r="G32">
-        <v>-0.002848970535646088</v>
-      </c>
-      <c r="H32">
-        <v>0.005457336573412181</v>
+        <v>0.0004492399125954323</v>
       </c>
       <c r="I32">
-        <v>0.0002825312188253122</v>
+        <v>0.002450757497189507</v>
       </c>
       <c r="J32">
-        <v>0.005698393283557277</v>
+        <v>-0.02529261230927979</v>
       </c>
       <c r="K32">
-        <v>0.001088810374888104</v>
+        <v>9.686163960229203E-05</v>
       </c>
       <c r="L32">
-        <v>0.002517369961173699</v>
+        <v>0.006276627862539279</v>
       </c>
       <c r="M32">
-        <v>0.001088810374888104</v>
+        <v>9.686163960229203E-05</v>
+      </c>
+      <c r="O32">
+        <v>9.686163960229203E-05</v>
       </c>
       <c r="P32">
-        <v>0.001908477283084773</v>
+        <v>0.004273543337961915</v>
       </c>
       <c r="Q32">
-        <v>0.002116890537168905</v>
+        <v>0.006774130881022934</v>
       </c>
       <c r="R32">
-        <v>0.002116890537168905</v>
+        <v>0.006774130881022934</v>
       </c>
       <c r="S32">
-        <v>0.002116890537168905</v>
+        <v>0.006774130881022934</v>
       </c>
       <c r="T32">
-        <v>0.002116890537168905</v>
+        <v>0.006774130881022934</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>0.2511557860115579</v>
+        <v>0.4945569550368157</v>
       </c>
       <c r="D33">
-        <v>0.003653658888536589</v>
+        <v>0.006513059632924035</v>
       </c>
       <c r="F33">
-        <v>-0.9399352508433525</v>
+        <v>-0.5548807933354549</v>
       </c>
       <c r="G33">
-        <v>0.6756415008853758</v>
-      </c>
-      <c r="H33">
-        <v>-0.870033810985091</v>
+        <v>0.2738216918647262</v>
       </c>
       <c r="I33">
-        <v>-0.05790539029505391</v>
+        <v>0.1920184052187002</v>
       </c>
       <c r="J33">
-        <v>-0.07648865791638669</v>
+        <v>-0.1526404811711004</v>
       </c>
       <c r="K33">
-        <v>-0.8139800272718003</v>
+        <v>-0.4196134275126131</v>
       </c>
       <c r="L33">
-        <v>-0.7388679503486795</v>
+        <v>0.2956953148853748</v>
       </c>
       <c r="M33">
-        <v>-0.8139800272718003</v>
+        <v>-0.4196134275126131</v>
+      </c>
+      <c r="O33">
+        <v>-0.4196134275126131</v>
       </c>
       <c r="P33">
-        <v>-0.8448424505524245</v>
+        <v>0.08196333634331575</v>
       </c>
       <c r="Q33">
-        <v>-0.7855924341199243</v>
+        <v>0.2596848207571884</v>
       </c>
       <c r="R33">
-        <v>-0.7855924341199243</v>
+        <v>0.2596848207571884</v>
       </c>
       <c r="S33">
-        <v>-0.7855924341199243</v>
+        <v>0.2596848207571884</v>
       </c>
       <c r="T33">
-        <v>-0.7855924341199243</v>
+        <v>0.2596848207571884</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C34">
-        <v>-0.008919263801192637</v>
+        <v>0.0002838620131961501</v>
       </c>
       <c r="D34">
-        <v>-0.00284086194440862</v>
+        <v>0.001422317740221523</v>
       </c>
       <c r="F34">
-        <v>-0.01269997522299975</v>
+        <v>-0.01197087355478915</v>
       </c>
       <c r="G34">
-        <v>0.0092427432531917</v>
-      </c>
-      <c r="H34">
-        <v>-0.01050416975073042</v>
+        <v>0.02006111610347971</v>
       </c>
       <c r="I34">
-        <v>0.001526863587268636</v>
+        <v>-0.002853464198440043</v>
       </c>
       <c r="J34">
-        <v>-0.007976350659666898</v>
+        <v>-0.0122484858620258</v>
       </c>
       <c r="K34">
-        <v>-0.008135416641354167</v>
+        <v>0.02802950013349824</v>
       </c>
       <c r="L34">
-        <v>-0.008264311798643119</v>
+        <v>0.02294262742894414</v>
       </c>
       <c r="M34">
-        <v>-0.008135416641354167</v>
+        <v>0.02802950013349824</v>
+      </c>
+      <c r="O34">
+        <v>0.02802950013349824</v>
       </c>
       <c r="P34">
-        <v>-0.01087314344473143</v>
+        <v>0.02466172856498755</v>
       </c>
       <c r="Q34">
-        <v>-0.00963801700838017</v>
+        <v>0.02411290333694968</v>
       </c>
       <c r="R34">
-        <v>-0.00963801700838017</v>
+        <v>0.02411290333694968</v>
       </c>
       <c r="S34">
-        <v>-0.00963801700838017</v>
+        <v>0.02411290333694968</v>
       </c>
       <c r="T34">
-        <v>-0.00963801700838017</v>
+        <v>0.02411290333694968</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C35">
-        <v>-0.001950996163509962</v>
+        <v>-0.007753948283834041</v>
       </c>
       <c r="D35">
-        <v>0.006341509179415093</v>
+        <v>-0.01875700742907926</v>
       </c>
       <c r="F35">
-        <v>-0.00397821897978219</v>
+        <v>0.002234189702981934</v>
       </c>
       <c r="G35">
-        <v>-0.004783628387525884</v>
-      </c>
-      <c r="H35">
-        <v>-0.008864833268872697</v>
+        <v>-0.00537409643101771</v>
       </c>
       <c r="I35">
-        <v>0.00348094505880945</v>
+        <v>-0.003763592409590461</v>
       </c>
       <c r="J35">
-        <v>-0.009360918878357015</v>
+        <v>-0.01296736948541848</v>
       </c>
       <c r="K35">
-        <v>-0.0152328598283286</v>
+        <v>-0.0119508015877873</v>
       </c>
       <c r="L35">
-        <v>-0.01645382628853826</v>
+        <v>-0.01720037582528892</v>
       </c>
       <c r="M35">
-        <v>-0.0152328598283286</v>
+        <v>-0.0119508015877873</v>
+      </c>
+      <c r="O35">
+        <v>-0.0119508015877873</v>
       </c>
       <c r="P35">
-        <v>-0.01200678841206788</v>
+        <v>-0.01063477591996885</v>
       </c>
       <c r="Q35">
-        <v>-0.01589311928693119</v>
+        <v>-0.01634108200186101</v>
       </c>
       <c r="R35">
-        <v>-0.01589311928693119</v>
+        <v>-0.01634108200186101</v>
       </c>
       <c r="S35">
-        <v>-0.01589311928693119</v>
+        <v>-0.01634108200186101</v>
       </c>
       <c r="T35">
-        <v>-0.01589311928693119</v>
+        <v>-0.01634108200186101</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>-0.002383328399833284</v>
+        <v>0.006662286656462556</v>
       </c>
       <c r="D36">
-        <v>-0.00246730699267307</v>
+        <v>-0.01498383962769114</v>
       </c>
       <c r="F36">
-        <v>-0.004402893212028932</v>
+        <v>-0.00889945618791912</v>
       </c>
       <c r="G36">
-        <v>0.01463064560707903</v>
-      </c>
-      <c r="H36">
-        <v>-0.002926344080780871</v>
+        <v>-0.002781545451218024</v>
       </c>
       <c r="I36">
-        <v>-0.0003398025273980253</v>
+        <v>-0.005520434314248552</v>
       </c>
       <c r="J36">
-        <v>0.007278200348035046</v>
+        <v>-0.0219600074051097</v>
       </c>
       <c r="K36">
-        <v>0.2290399561423996</v>
+        <v>0.6930979886976502</v>
       </c>
       <c r="L36">
-        <v>0.2492811072568111</v>
+        <v>0.7886707790106751</v>
       </c>
       <c r="M36">
-        <v>0.2290399561423996</v>
+        <v>0.6930979886976502</v>
+      </c>
+      <c r="O36">
+        <v>0.6930979886976502</v>
       </c>
       <c r="P36">
-        <v>0.1024520528685205</v>
+        <v>0.7001593040937517</v>
       </c>
       <c r="Q36">
-        <v>0.219896602838966</v>
+        <v>0.7915348222324127</v>
       </c>
       <c r="R36">
-        <v>0.219896602838966</v>
+        <v>0.7915348222324127</v>
       </c>
       <c r="S36">
-        <v>0.219896602838966</v>
+        <v>0.7915348222324127</v>
       </c>
       <c r="T36">
-        <v>0.219896602838966</v>
+        <v>0.7915348222324127</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37">
-        <v>0.006923397093233972</v>
+        <v>0.02144627802560256</v>
       </c>
       <c r="D37">
-        <v>-0.01519095769990958</v>
+        <v>-0.001996948700536175</v>
       </c>
       <c r="F37">
-        <v>-0.001698711604987116</v>
+        <v>0.002968984537698886</v>
       </c>
       <c r="G37">
-        <v>0.01096505431602157</v>
-      </c>
-      <c r="H37">
-        <v>-0.006303127526855685</v>
+        <v>0.01649340307834345</v>
       </c>
       <c r="I37">
-        <v>-0.007787191097871911</v>
+        <v>-0.003268834803692977</v>
       </c>
       <c r="J37">
-        <v>-0.01703556561880614</v>
+        <v>0.01304276348584574</v>
       </c>
       <c r="K37">
-        <v>-0.006788324635883246</v>
+        <v>-0.01833853865084559</v>
       </c>
       <c r="L37">
-        <v>-0.006735840331358403</v>
+        <v>-0.006714069552433527</v>
       </c>
       <c r="M37">
-        <v>-0.006788324635883246</v>
+        <v>-0.01833853865084559</v>
+      </c>
+      <c r="O37">
+        <v>-0.01833853865084559</v>
       </c>
       <c r="P37">
-        <v>-0.002860953604609536</v>
+        <v>-0.02263660994138684</v>
       </c>
       <c r="Q37">
-        <v>-0.005417123046171231</v>
+        <v>-0.009339198657919391</v>
       </c>
       <c r="R37">
-        <v>-0.005417123046171231</v>
+        <v>-0.009339198657919391</v>
       </c>
       <c r="S37">
-        <v>-0.005417123046171231</v>
+        <v>-0.009339198657919391</v>
       </c>
       <c r="T37">
-        <v>-0.005417123046171231</v>
+        <v>-0.009339198657919391</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C38">
-        <v>-0.0155864200078642</v>
+        <v>0.008519750657784503</v>
       </c>
       <c r="D38">
-        <v>-0.01165142259251423</v>
+        <v>0.02207233339132745</v>
       </c>
       <c r="F38">
-        <v>0.003100215751002158</v>
+        <v>0.002927893658219306</v>
       </c>
       <c r="G38">
-        <v>0.0008646289577950815</v>
-      </c>
-      <c r="H38">
-        <v>0.008848900807734667</v>
+        <v>-0.0004777483890310065</v>
       </c>
       <c r="I38">
-        <v>0.003119780767197807</v>
+        <v>0.003990638262514869</v>
       </c>
       <c r="J38">
-        <v>0.006738535706549934</v>
+        <v>-0.005718286000317041</v>
       </c>
       <c r="K38">
-        <v>0.003129144499291445</v>
+        <v>0.003472502431096635</v>
       </c>
       <c r="L38">
-        <v>0.004089357772893577</v>
+        <v>-0.005484950662820875</v>
       </c>
       <c r="M38">
-        <v>0.003129144499291445</v>
+        <v>0.003472502431096635</v>
+      </c>
+      <c r="O38">
+        <v>0.003472502431096635</v>
       </c>
       <c r="P38">
-        <v>0.007086398674863987</v>
+        <v>-0.0005557153503157007</v>
       </c>
       <c r="Q38">
-        <v>0.004924445545244456</v>
+        <v>-0.005000259206670973</v>
       </c>
       <c r="R38">
-        <v>0.004924445545244456</v>
+        <v>-0.005000259206670973</v>
       </c>
       <c r="S38">
-        <v>0.004924445545244456</v>
+        <v>-0.005000259206670973</v>
       </c>
       <c r="T38">
-        <v>0.004924445545244456</v>
+        <v>-0.005000259206670973</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>0.0178964299549643</v>
+        <v>0.01817802987726841</v>
       </c>
       <c r="D39">
-        <v>0.007499023610990236</v>
+        <v>0.00962397437215633</v>
       </c>
       <c r="F39">
-        <v>0.01555370095153701</v>
+        <v>-0.01180237763993291</v>
       </c>
       <c r="G39">
-        <v>-0.01325981457284083</v>
-      </c>
-      <c r="H39">
-        <v>0.01079366845129347</v>
+        <v>-0.005097578833355544</v>
       </c>
       <c r="I39">
-        <v>0.01554370876743709</v>
+        <v>0.01055710541190875</v>
       </c>
       <c r="J39">
-        <v>-0.000298662041804859</v>
+        <v>-0.01387485928699896</v>
       </c>
       <c r="K39">
-        <v>0.01244422770444228</v>
+        <v>-0.0049163688637038</v>
       </c>
       <c r="L39">
-        <v>0.01038650088786501</v>
+        <v>0.01124649270511285</v>
       </c>
       <c r="M39">
-        <v>0.01244422770444228</v>
+        <v>-0.0049163688637038</v>
+      </c>
+      <c r="O39">
+        <v>-0.0049163688637038</v>
       </c>
       <c r="P39">
-        <v>0.008583050485830506</v>
+        <v>0.01442854830967145</v>
       </c>
       <c r="Q39">
-        <v>0.01016919851369199</v>
+        <v>0.01210752944618901</v>
       </c>
       <c r="R39">
-        <v>0.01016919851369199</v>
+        <v>0.01210752944618901</v>
       </c>
       <c r="S39">
-        <v>0.01016919851369199</v>
+        <v>0.01210752944618901</v>
       </c>
       <c r="T39">
-        <v>0.01016919851369199</v>
+        <v>0.01210752944618901</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>-0.003877094822770948</v>
+        <v>-0.01504658523130874</v>
       </c>
       <c r="D40">
-        <v>-0.003414632878146329</v>
+        <v>-0.01629739819851462</v>
       </c>
       <c r="F40">
-        <v>0.01187212503472125</v>
+        <v>-8.22945627260908E-05</v>
       </c>
       <c r="G40">
-        <v>-0.0005984777257812886</v>
-      </c>
-      <c r="H40">
-        <v>0.007362322776779645</v>
+        <v>-0.004237012060618187</v>
       </c>
       <c r="I40">
-        <v>0.003240945404409454</v>
+        <v>-0.01827064077542667</v>
       </c>
       <c r="J40">
-        <v>-0.004980782131531386</v>
+        <v>0.01172574656898205</v>
       </c>
       <c r="K40">
-        <v>0.008376410939764109</v>
+        <v>0.01368333262318579</v>
       </c>
       <c r="L40">
-        <v>0.007360863169608631</v>
+        <v>0.001372334447922729</v>
       </c>
       <c r="M40">
-        <v>0.008376410939764109</v>
+        <v>0.01368333262318579</v>
+      </c>
+      <c r="O40">
+        <v>0.01368333262318579</v>
       </c>
       <c r="P40">
-        <v>0.01009073261290733</v>
+        <v>0.008076090458972049</v>
       </c>
       <c r="Q40">
-        <v>0.008508078865080789</v>
+        <v>0.001736954202751592</v>
       </c>
       <c r="R40">
-        <v>0.008508078865080789</v>
+        <v>0.001736954202751592</v>
       </c>
       <c r="S40">
-        <v>0.008508078865080789</v>
+        <v>0.001736954202751592</v>
       </c>
       <c r="T40">
-        <v>0.008508078865080789</v>
+        <v>0.001736954202751592</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>-0.04259688454196885</v>
+        <v>-0.02780529649034708</v>
       </c>
       <c r="D41">
-        <v>-0.0122099903780999</v>
+        <v>0.01542389100573997</v>
       </c>
       <c r="F41">
-        <v>-0.007070381626703817</v>
+        <v>-0.006972084206773919</v>
       </c>
       <c r="G41">
-        <v>0.007645476226606463</v>
-      </c>
-      <c r="H41">
-        <v>-0.01276416965862017</v>
+        <v>0.01284131785535818</v>
       </c>
       <c r="I41">
-        <v>-0.02158547323185473</v>
+        <v>0.01711820467424068</v>
       </c>
       <c r="J41">
-        <v>-0.001062063648648642</v>
+        <v>0.008774405871506083</v>
       </c>
       <c r="K41">
-        <v>-0.01703413099434131</v>
+        <v>-0.03566966616533367</v>
       </c>
       <c r="L41">
-        <v>-0.01799126309991263</v>
+        <v>-0.009378100187714268</v>
       </c>
       <c r="M41">
-        <v>-0.01703413099434131</v>
+        <v>-0.03566966616533367</v>
+      </c>
+      <c r="O41">
+        <v>-0.03566966616533367</v>
       </c>
       <c r="P41">
-        <v>-0.009599452703994527</v>
+        <v>-0.01936527399119914</v>
       </c>
       <c r="Q41">
-        <v>-0.01436194225161942</v>
+        <v>-0.0125145270947602</v>
       </c>
       <c r="R41">
-        <v>-0.01436194225161942</v>
+        <v>-0.0125145270947602</v>
       </c>
       <c r="S41">
-        <v>-0.01436194225161942</v>
+        <v>-0.0125145270947602</v>
       </c>
       <c r="T41">
-        <v>-0.01436194225161942</v>
+        <v>-0.0125145270947602</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A18:A19"/>
